--- a/Reports/bin/Debug/Отчет 20200702 VRES-MKD.xlsx
+++ b/Reports/bin/Debug/Отчет 20200702 VRES-MKD.xlsx
@@ -36,16 +36,28 @@
     <t xml:space="preserve">	ERROR - 11:43:57 - Открытие сеанса (повтор: 4) - 11:44:03 - нет ответа от устройства</t>
   </si>
   <si>
+    <t>Ад. Кутуя 2а 5260465(65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 10:33:03 - Открытие сеанса (повтор: 4) - 10:33:09 - нет ответа от устройства</t>
+  </si>
+  <si>
     <t>Ад. Кутуя 12 2594189</t>
   </si>
   <si>
     <t xml:space="preserve">	ERROR - 15.04.2020 10:28:20 - Открытие сеанса - 10:28:42 - Невозможно открыть порт 172.30.25.158:5555</t>
   </si>
   <si>
-    <t>Ад. Кутуя 2а 5260465(65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 10:33:03 - Открытие сеанса (повтор: 4) - 10:33:09 - нет ответа от устройства</t>
+    <t>Гастелло 7 18426032 нет пинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 10:41:29 - Открытие сеанса - 10:41:51 - Невозможно открыть порт 172.30.23.250:5555</t>
+  </si>
+  <si>
+    <t>Гастелло 7 18435085 нет пинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 10:41:51 - Открытие сеанса - 10:42:13 - Невозможно открыть порт 172.30.23.250:5555</t>
   </si>
   <si>
     <t>Гастелло 18 4430864</t>
@@ -60,16 +72,28 @@
     <t xml:space="preserve">	OK - 15.04.2020 10:41:07 - Закрытие сеанса - 10:41:07 - OK</t>
   </si>
   <si>
-    <t>Гастелло 7 18426032 нет пинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 10:41:29 - Открытие сеанса - 10:41:51 - Невозможно открыть порт 172.30.23.250:5555</t>
-  </si>
-  <si>
-    <t>Гастелло 7 18435085 нет пинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 10:41:51 - Открытие сеанса - 10:42:13 - Невозможно открыть порт 172.30.23.250:5555</t>
+    <t>Гвардейская 5 26 нет пинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 11:46:16 - Открытие сеанса - 11:46:38 - Невозможно открыть порт 172.30.25.202:5555</t>
+  </si>
+  <si>
+    <t>Гвардейская 5 9319563 нет пинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 10:45:06 - Открытие сеанса - 10:45:28 - Невозможно открыть порт 172.30.25.202:5555</t>
+  </si>
+  <si>
+    <t>Гвардейская 9 13077108(108) нет отв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 11:47:01 - Открытие сеанса (повтор: 4) - 11:47:06 - нет ответа от устройства</t>
+  </si>
+  <si>
+    <t>Гвардейская 9а 13077140(140)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	OK - 15.04.2020 10:43:09 - Закрытие сеанса - 10:43:09 - OK</t>
   </si>
   <si>
     <t>Гвардейская 20 34328918 узнать айпи адрес</t>
@@ -114,30 +138,6 @@
     <t xml:space="preserve">	ERROR - 10:44:29 - Открытие сеанса (повтор: 4) - 10:44:37 - нет ответа от устройства</t>
   </si>
   <si>
-    <t>Гвардейская 5 26 нет пинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 11:46:16 - Открытие сеанса - 11:46:38 - Невозможно открыть порт 172.30.25.202:5555</t>
-  </si>
-  <si>
-    <t>Гвардейская 5 9319563 нет пинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 10:45:06 - Открытие сеанса - 10:45:28 - Невозможно открыть порт 172.30.25.202:5555</t>
-  </si>
-  <si>
-    <t>Гвардейская 9 13077108(108) нет отв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 11:47:01 - Открытие сеанса (повтор: 4) - 11:47:06 - нет ответа от устройства</t>
-  </si>
-  <si>
-    <t>Гвардейская 9а 13077140(140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	OK - 15.04.2020 10:43:09 - Закрытие сеанса - 10:43:09 - OK</t>
-  </si>
-  <si>
     <t>Фучика,131 4431035 нет пинга</t>
   </si>
   <si>
@@ -234,18 +234,30 @@
     <t xml:space="preserve">	OK - 15.04.2020 11:38:37 - Закрытие сеанса - 11:38:37 - OK</t>
   </si>
   <si>
+    <t>Чишмяле,9 8019019000376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 11:40:43 - Чтение базы данных - 11:41:25 - нет ответа от устройства</t>
+  </si>
+  <si>
+    <t>Чишмяле,9 8019019000386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 11:41:25 - Чтение базы данных - 11:42:06 - нет ответа от устройства</t>
+  </si>
+  <si>
+    <t>Чишмяле,11 809019000318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ERROR - 15.04.2020 11:39:18 - Чтение базы данных - 11:39:59 - нет ответа от устройства</t>
+  </si>
+  <si>
     <t>Чишмяле,11 8019019000311</t>
   </si>
   <si>
     <t xml:space="preserve">	ERROR - 15.04.2020 11:38:37 - Чтение базы данных - 11:39:18 - нет ответа от устройства</t>
   </si>
   <si>
-    <t>Чишмяле,11 809019000318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 11:39:18 - Чтение базы данных - 11:39:59 - нет ответа от устройства</t>
-  </si>
-  <si>
     <t>Чишмяле,21 8019019000345 не откр сеанс связи</t>
   </si>
   <si>
@@ -256,18 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">	ERROR - 15.04.2020 11:40:21 - Чтение базы данных - 11:40:43 - Невозможно открыть порт 172.30.8.234:5555</t>
-  </si>
-  <si>
-    <t>Чишмяле,9 8019019000376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 11:40:43 - Чтение базы данных - 11:41:25 - нет ответа от устройства</t>
-  </si>
-  <si>
-    <t>Чишмяле,9 8019019000386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ERROR - 15.04.2020 11:41:25 - Чтение базы данных - 11:42:06 - нет ответа от устройства</t>
   </si>
   <si>
     <t>Шуртыгина 11 61</t>
